--- a/example1_cor.xlsx
+++ b/example1_cor.xlsx
@@ -17,7 +17,3712 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="1330">
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_1</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_2</t>
+  </si>
+  <si>
+    <t>HPLCMS_kid_Glucose_3</t>
+  </si>
+  <si>
+    <t>M1_brain_neg</t>
+  </si>
+  <si>
+    <t>M2_brain_neg</t>
+  </si>
+  <si>
+    <t>M3_brain_neg</t>
+  </si>
   <si>
     <t>label</t>
   </si>
@@ -374,64 +4079,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>1235</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>1236</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>1237</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>1238</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>1239</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>1240</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>1241</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>1242</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>13</v>
+        <v>1248</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>15</v>
+        <v>1250</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>17</v>
+        <v>1252</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>19</v>
+        <v>1254</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>20</v>
+        <v>1255</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>21</v>
+        <v>1256</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>22</v>
+        <v>1257</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>23</v>
+        <v>1258</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>24</v>
+        <v>1259</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>25</v>
+        <v>1260</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>26</v>
+        <v>1261</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>27</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="2">
@@ -455,16 +4160,16 @@
         <v>0.82511599999999996</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>8</v>
+        <v>1243</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>14</v>
+        <v>1249</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>16</v>
+        <v>1251</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>18</v>
+        <v>1253</v>
       </c>
       <c r="L2" s="0">
         <v>0.57199999999999995</v>
@@ -515,16 +4220,16 @@
         <v>0.83560000000000001</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>9</v>
+        <v>1244</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>14</v>
+        <v>1249</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>16</v>
+        <v>1251</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>18</v>
+        <v>1253</v>
       </c>
       <c r="L3" s="0">
         <v>0.57299999999999995</v>
@@ -575,16 +4280,16 @@
         <v>0.82877400000000001</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>10</v>
+        <v>1245</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>14</v>
+        <v>1249</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>16</v>
+        <v>1251</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>18</v>
+        <v>1253</v>
       </c>
       <c r="L4" s="0">
         <v>0.57199999999999995</v>
@@ -635,16 +4340,16 @@
         <v>0.83857400000000004</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>11</v>
+        <v>1246</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>14</v>
+        <v>1249</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>16</v>
+        <v>1251</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>18</v>
+        <v>1253</v>
       </c>
       <c r="L5" s="0">
         <v>0.57699999999999996</v>
@@ -695,16 +4400,16 @@
         <v>0.83599100000000004</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>12</v>
+        <v>1247</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>14</v>
+        <v>1249</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>16</v>
+        <v>1251</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>18</v>
+        <v>1253</v>
       </c>
       <c r="L6" s="0">
         <v>0.58199999999999996</v>
@@ -767,64 +4472,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>1263</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>1264</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>1265</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>31</v>
+        <v>1266</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>32</v>
+        <v>1267</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>33</v>
+        <v>1268</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>34</v>
+        <v>1269</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>35</v>
+        <v>1270</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>41</v>
+        <v>1276</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>43</v>
+        <v>1278</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>45</v>
+        <v>1280</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>47</v>
+        <v>1282</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>48</v>
+        <v>1283</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>49</v>
+        <v>1284</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>50</v>
+        <v>1285</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>51</v>
+        <v>1286</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>52</v>
+        <v>1287</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>53</v>
+        <v>1288</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>54</v>
+        <v>1289</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>55</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2">
@@ -848,16 +4553,16 @@
         <v>0.82511599999999996</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>36</v>
+        <v>1271</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>1277</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>44</v>
+        <v>1279</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>46</v>
+        <v>1281</v>
       </c>
       <c r="L2" s="0">
         <v>0.57199999999999995</v>
@@ -908,16 +4613,16 @@
         <v>0.83560000000000001</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>37</v>
+        <v>1272</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>1277</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>44</v>
+        <v>1279</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>46</v>
+        <v>1281</v>
       </c>
       <c r="L3" s="0">
         <v>0.57299999999999995</v>
@@ -968,16 +4673,16 @@
         <v>0.82877400000000001</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>38</v>
+        <v>1273</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>1277</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>44</v>
+        <v>1279</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>46</v>
+        <v>1281</v>
       </c>
       <c r="L4" s="0">
         <v>0.57199999999999995</v>
@@ -1028,16 +4733,16 @@
         <v>0.83857400000000004</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>39</v>
+        <v>1274</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>42</v>
+        <v>1277</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>44</v>
+        <v>1279</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>46</v>
+        <v>1281</v>
       </c>
       <c r="L5" s="0">
         <v>0.57699999999999996</v>
@@ -1088,16 +4793,16 @@
         <v>0.83599100000000004</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>40</v>
+        <v>1275</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>42</v>
+        <v>1277</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>44</v>
+        <v>1279</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>46</v>
+        <v>1281</v>
       </c>
       <c r="L6" s="0">
         <v>0.58199999999999996</v>
@@ -1160,64 +4865,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>1291</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>1292</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>58</v>
+        <v>1293</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>59</v>
+        <v>1294</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>60</v>
+        <v>1295</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>61</v>
+        <v>1296</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>62</v>
+        <v>1297</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>63</v>
+        <v>1298</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>69</v>
+        <v>1304</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>71</v>
+        <v>1306</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>73</v>
+        <v>1308</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>75</v>
+        <v>1310</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>76</v>
+        <v>1311</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>77</v>
+        <v>1312</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>78</v>
+        <v>1313</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>79</v>
+        <v>1314</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>80</v>
+        <v>1315</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>81</v>
+        <v>1316</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>82</v>
+        <v>1317</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>83</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="2">
@@ -1241,16 +4946,16 @@
         <v>0.82511599999999996</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>64</v>
+        <v>1299</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>70</v>
+        <v>1305</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>72</v>
+        <v>1307</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>74</v>
+        <v>1309</v>
       </c>
       <c r="L2" s="0">
         <v>0.57199999999999995</v>
@@ -1301,16 +5006,16 @@
         <v>0.83560000000000001</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>65</v>
+        <v>1300</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>70</v>
+        <v>1305</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>72</v>
+        <v>1307</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>74</v>
+        <v>1309</v>
       </c>
       <c r="L3" s="0">
         <v>0.57299999999999995</v>
@@ -1361,16 +5066,16 @@
         <v>0.82877400000000001</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>66</v>
+        <v>1301</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>70</v>
+        <v>1305</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>72</v>
+        <v>1307</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>74</v>
+        <v>1309</v>
       </c>
       <c r="L4" s="0">
         <v>0.57199999999999995</v>
@@ -1421,16 +5126,16 @@
         <v>0.83857400000000004</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>67</v>
+        <v>1302</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>70</v>
+        <v>1305</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>72</v>
+        <v>1307</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>74</v>
+        <v>1309</v>
       </c>
       <c r="L5" s="0">
         <v>0.57699999999999996</v>
@@ -1481,16 +5186,16 @@
         <v>0.83599100000000004</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>68</v>
+        <v>1303</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>70</v>
+        <v>1305</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>72</v>
+        <v>1307</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>74</v>
+        <v>1309</v>
       </c>
       <c r="L6" s="0">
         <v>0.58199999999999996</v>
@@ -1542,31 +5247,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>1319</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>85</v>
+        <v>1320</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>87</v>
+        <v>1322</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>89</v>
+        <v>1324</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>90</v>
+        <v>1325</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>91</v>
+        <v>1326</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>92</v>
+        <v>1327</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>93</v>
+        <v>1328</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>94</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="2">
@@ -1574,10 +5279,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>86</v>
+        <v>1321</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>88</v>
+        <v>1323</v>
       </c>
       <c r="D2" s="0">
         <v>35630550.210000016</v>
